--- a/状态机表.xlsx
+++ b/状态机表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mr.Liao\GraduationProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52847E6-47B5-4E83-8466-722162FF7D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDD82A4-31F7-4A75-BB03-005BE4BACE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,14 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若收到仲裁，说明是faultPending下发出的仲裁请求导致的，只需回复服务器“已收到仲裁”即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复“解除仲裁”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>状态转为dualRunning，解除仲裁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,18 +83,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>执行仲裁，回复“已收到仲裁”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>来自对方的心跳超时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>转为falutPending</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普通心跳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,6 +124,22 @@
   </si>
   <si>
     <t>在recoveryPending状态下收到心跳，是否要做出处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若仲裁term==当前term-1，回复“解除仲裁”，其余情况忽略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只执行当前term仲裁，发送“仲裁回复”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若是当前term仲裁，则说明是faultPending下发出的仲裁请求导致的，只需发送“仲裁回复”即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若为当前term，转为falutPending</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +489,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:XFD1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -499,15 +499,15 @@
     <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -519,7 +519,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="56" x14ac:dyDescent="0.3">
@@ -527,30 +527,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -559,13 +559,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="56" x14ac:dyDescent="0.3">
@@ -573,22 +573,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="56" x14ac:dyDescent="0.3">
@@ -596,7 +596,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -605,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="56" x14ac:dyDescent="0.3">
@@ -619,30 +619,30 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
